--- a/Chem.xlsx
+++ b/Chem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
   <si>
     <t>Compound</t>
   </si>
@@ -72,9 +72,6 @@
     <t>NaHCO3</t>
   </si>
   <si>
-    <t>NaOCl</t>
-  </si>
-  <si>
     <t>Calcium Oxide</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>O2</t>
   </si>
   <si>
-    <t>Potassium Permanganate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ferrous Sulphate </t>
   </si>
   <si>
@@ -354,12 +348,6 @@
     <t>Na2CO3,CO2,H2O</t>
   </si>
   <si>
-    <t>Sodium Hypochlorite</t>
-  </si>
-  <si>
-    <t>KMnO4</t>
-  </si>
-  <si>
     <t>KI,I2</t>
   </si>
   <si>
@@ -370,6 +358,114 @@
   </si>
   <si>
     <t>CaO,CO2</t>
+  </si>
+  <si>
+    <t>Na, Cl2</t>
+  </si>
+  <si>
+    <t>CO2, H2O</t>
+  </si>
+  <si>
+    <t>H2CO3</t>
+  </si>
+  <si>
+    <t>H2, S</t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>KOH, H2SO4</t>
+  </si>
+  <si>
+    <t>H2O, K2SO4</t>
+  </si>
+  <si>
+    <t>K2SO4</t>
+  </si>
+  <si>
+    <t>Ca(OH)2, H2SO4</t>
+  </si>
+  <si>
+    <t>CaSO4, H2O</t>
+  </si>
+  <si>
+    <t>CaSO4</t>
+  </si>
+  <si>
+    <t>Fe2O3, H2SO4</t>
+  </si>
+  <si>
+    <t>Fe2(SO4)3, H2O</t>
+  </si>
+  <si>
+    <t>Fe2(SO4)3</t>
+  </si>
+  <si>
+    <t>Fe, H2SO4</t>
+  </si>
+  <si>
+    <t>H2, FeSO4</t>
+  </si>
+  <si>
+    <t>Cu, H2SO4</t>
+  </si>
+  <si>
+    <t>CuSO4, H2</t>
+  </si>
+  <si>
+    <t>NaHCO3, H2SO4</t>
+  </si>
+  <si>
+    <t>Na2SO4, H2O, CO2</t>
+  </si>
+  <si>
+    <t>Mg, H2SO4</t>
+  </si>
+  <si>
+    <t>MgSO4, H2</t>
+  </si>
+  <si>
+    <t>Zn, H2SO4</t>
+  </si>
+  <si>
+    <t>ZnSO4, H2</t>
+  </si>
+  <si>
+    <t>KI, H2SO4</t>
+  </si>
+  <si>
+    <t>HI, K2SO4</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Na, H2SO4</t>
+  </si>
+  <si>
+    <t>Al, H2SO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Na2SO4, H2</t>
+  </si>
+  <si>
+    <t>Al2(SO4)3, H2</t>
+  </si>
+  <si>
+    <t>Al2(SO4)3</t>
+  </si>
+  <si>
+    <t>Al2O3, H2SO4</t>
+  </si>
+  <si>
+    <t>Al2(SO4)3, H2O</t>
+  </si>
+  <si>
+    <t>Na2CO3, H2SO4</t>
   </si>
 </sst>
 </file>
@@ -708,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,22 +914,16 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
       <c r="C11">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
       <c r="C12">
         <v>109</v>
@@ -841,10 +931,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
       </c>
       <c r="C13">
         <v>110</v>
@@ -852,10 +942,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
       <c r="C14">
         <v>111</v>
@@ -863,32 +953,26 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
       </c>
       <c r="C15">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
       <c r="C16">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>114</v>
@@ -896,10 +980,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>115</v>
@@ -907,10 +991,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>116</v>
@@ -918,10 +1002,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>117</v>
@@ -929,10 +1013,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
       </c>
       <c r="C21">
         <v>118</v>
@@ -940,10 +1024,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
       </c>
       <c r="C22">
         <v>119</v>
@@ -951,10 +1035,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
         <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
       </c>
       <c r="C23">
         <v>120</v>
@@ -962,10 +1046,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>121</v>
@@ -973,10 +1057,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>122</v>
@@ -984,10 +1068,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>123</v>
@@ -995,10 +1079,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C27">
         <v>124</v>
@@ -1006,10 +1090,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>125</v>
@@ -1017,10 +1101,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>126</v>
@@ -1028,10 +1112,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>127</v>
@@ -1039,10 +1123,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>128</v>
@@ -1050,10 +1134,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>129</v>
@@ -1061,10 +1145,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33">
         <v>130</v>
@@ -1072,10 +1156,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34">
         <v>131</v>
@@ -1083,10 +1167,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35">
         <v>132</v>
@@ -1094,10 +1178,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36">
         <v>133</v>
@@ -1105,10 +1189,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37">
         <v>134</v>
@@ -1116,10 +1200,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C38">
         <v>135</v>
@@ -1127,7 +1211,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C39">
         <v>136</v>
@@ -1135,10 +1219,74 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C40">
         <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1149,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,33 +1314,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>100101</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>102103</v>
@@ -1200,16 +1348,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>115128</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>114116</v>
@@ -1217,16 +1365,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>116117</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>118127</v>
@@ -1234,16 +1382,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>119128</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>116129</v>
@@ -1251,16 +1399,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>121128</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <v>116120</v>
@@ -1268,16 +1416,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>103130</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>101131</v>
@@ -1285,16 +1433,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>122132</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>115133</v>
@@ -1302,16 +1450,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>123124</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>125126</v>
@@ -1319,16 +1467,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>100104</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>103126</v>
@@ -1336,16 +1484,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>101105</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>103134</v>
@@ -1353,16 +1501,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>106111</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>103110</v>
@@ -1370,13 +1518,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14">
         <v>107135</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>103111136</v>
@@ -1384,13 +1532,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C15">
         <v>123125</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E15">
         <v>137</v>
@@ -1398,13 +1546,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C16">
         <v>110135</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E16">
         <v>109111</v>
@@ -1412,16 +1560,240 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17">
         <v>109111</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18">
+        <v>124130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19">
+        <v>103111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20">
+        <v>131140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <v>104105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21">
+        <v>103141</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22">
+        <v>105106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22">
+        <v>103142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23">
+        <v>105122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>103143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24">
+        <v>105115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24">
+        <v>114131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25">
+        <v>105116</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25">
+        <v>128131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26">
+        <v>105107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26">
+        <v>103111134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27">
+        <v>105119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27">
+        <v>129131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28">
+        <v>105121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28">
+        <v>120131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29">
+        <v>105123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29">
+        <v>141144</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30">
+        <v>105130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30">
+        <v>131134</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31">
+        <v>105132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31">
+        <v>131145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32">
+        <v>105133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32">
+        <v>103145</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33">
+        <v>105136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33">
+        <v>103111134</v>
       </c>
     </row>
   </sheetData>
@@ -1433,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Chem.xlsx
+++ b/Chem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
   <si>
     <t>Compound</t>
   </si>
@@ -466,6 +466,54 @@
   </si>
   <si>
     <t>Na2CO3, H2SO4</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Bromine</t>
+  </si>
+  <si>
+    <t>Br2</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
@@ -804,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +865,7 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -825,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -835,8 +883,11 @@
       <c r="C3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -846,8 +897,11 @@
       <c r="C4">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -857,8 +911,11 @@
       <c r="C5">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -868,8 +925,11 @@
       <c r="C6">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -879,8 +939,11 @@
       <c r="C7">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -890,8 +953,11 @@
       <c r="C8">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -901,8 +967,11 @@
       <c r="C9">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -912,13 +981,25 @@
       <c r="C10">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
       <c r="C11">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -928,8 +1009,11 @@
       <c r="C12">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -939,8 +1023,11 @@
       <c r="C13">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -950,8 +1037,11 @@
       <c r="C14">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -961,13 +1051,25 @@
       <c r="C15">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
       <c r="C16">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -977,8 +1079,11 @@
       <c r="C17">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -988,8 +1093,11 @@
       <c r="C18">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -999,8 +1107,11 @@
       <c r="C19">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1010,8 +1121,11 @@
       <c r="C20">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1021,8 +1135,11 @@
       <c r="C21">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1032,8 +1149,11 @@
       <c r="C22">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1043,8 +1163,11 @@
       <c r="C23">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1054,8 +1177,11 @@
       <c r="C24">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1065,8 +1191,11 @@
       <c r="C25">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1076,8 +1205,11 @@
       <c r="C26">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1087,8 +1219,11 @@
       <c r="C27">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1098,8 +1233,11 @@
       <c r="C28">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1109,8 +1247,11 @@
       <c r="C29">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1120,8 +1261,11 @@
       <c r="C30">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1131,8 +1275,11 @@
       <c r="C31">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1142,8 +1289,11 @@
       <c r="C32">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -1153,8 +1303,11 @@
       <c r="C33">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1164,8 +1317,11 @@
       <c r="C34">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -1175,8 +1331,11 @@
       <c r="C35">
         <v>132</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -1186,8 +1345,11 @@
       <c r="C36">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -1197,8 +1359,11 @@
       <c r="C37">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -1208,85 +1373,118 @@
       <c r="C38">
         <v>135</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>107</v>
       </c>
       <c r="C39">
         <v>136</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>111</v>
       </c>
       <c r="C40">
         <v>137</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>116</v>
       </c>
       <c r="C41">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>118</v>
       </c>
       <c r="C42">
         <v>139</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>119</v>
       </c>
       <c r="C43">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>122</v>
       </c>
       <c r="C44">
         <v>141</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>125</v>
       </c>
       <c r="C45">
         <v>142</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>128</v>
       </c>
       <c r="C46">
         <v>143</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>141</v>
       </c>
       <c r="C47">
         <v>144</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>146</v>
       </c>
       <c r="C48">
         <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1299,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,6 +2132,134 @@
         <v>110</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>124130</v>
+      </c>
+      <c r="B16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>103111</v>
+      </c>
+      <c r="B17">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>131140</v>
+      </c>
+      <c r="B18">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>104105</v>
+      </c>
+      <c r="B19">
+        <v>103141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>105106</v>
+      </c>
+      <c r="B20">
+        <v>103142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>105122</v>
+      </c>
+      <c r="B21">
+        <v>103143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>105115</v>
+      </c>
+      <c r="B22">
+        <v>114131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>105116</v>
+      </c>
+      <c r="B23">
+        <v>128131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>105107</v>
+      </c>
+      <c r="B24">
+        <v>103111134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>105119</v>
+      </c>
+      <c r="B25">
+        <v>129131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>105121</v>
+      </c>
+      <c r="B26">
+        <v>120131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>105123</v>
+      </c>
+      <c r="B27">
+        <v>141144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>105130</v>
+      </c>
+      <c r="B28">
+        <v>131134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>105132</v>
+      </c>
+      <c r="B29">
+        <v>131145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>105133</v>
+      </c>
+      <c r="B30">
+        <v>103145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>105136</v>
+      </c>
+      <c r="B31">
+        <v>103111134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Chem.xlsx
+++ b/Chem.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="202">
   <si>
     <t>Compound</t>
   </si>
@@ -466,6 +466,162 @@
   </si>
   <si>
     <t>Na2CO3, H2SO4</t>
+  </si>
+  <si>
+    <t>KOH, HCl</t>
+  </si>
+  <si>
+    <t>KCl, H2O</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ca(OH)2, HCl</t>
+  </si>
+  <si>
+    <t>CaCl2, H2O</t>
+  </si>
+  <si>
+    <t>Bromine</t>
+  </si>
+  <si>
+    <t>Br2</t>
+  </si>
+  <si>
+    <t>CaCl2</t>
+  </si>
+  <si>
+    <t>Fe2O3, HCl</t>
+  </si>
+  <si>
+    <t>Fe, HCl</t>
+  </si>
+  <si>
+    <t>NaHCO3, HCl</t>
+  </si>
+  <si>
+    <t>Mg, HCl</t>
+  </si>
+  <si>
+    <t>Zn, HCl</t>
+  </si>
+  <si>
+    <t>KI, HCl</t>
+  </si>
+  <si>
+    <t>Na, HCl</t>
+  </si>
+  <si>
+    <t>Al, HCl</t>
+  </si>
+  <si>
+    <t>Al2O3, HCl</t>
+  </si>
+  <si>
+    <t>Na2CO3, HCl</t>
+  </si>
+  <si>
+    <t>FeCl3, H2O</t>
+  </si>
+  <si>
+    <t>H2, FeCl3</t>
+  </si>
+  <si>
+    <t>FeCl3</t>
+  </si>
+  <si>
+    <t>NaCl, H2O, CO2</t>
+  </si>
+  <si>
+    <t>MgCl2, H2</t>
+  </si>
+  <si>
+    <t>ZnCl2, H2</t>
+  </si>
+  <si>
+    <t>HI, KCl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NaCl, H2</t>
+  </si>
+  <si>
+    <t>AlCl3, H2</t>
+  </si>
+  <si>
+    <t>AlCl3, H2O</t>
+  </si>
+  <si>
+    <t>MgCl2</t>
+  </si>
+  <si>
+    <t>ZnCl2</t>
+  </si>
+  <si>
+    <t>AlCl3</t>
+  </si>
+  <si>
+    <t>AgNO3, HCl</t>
+  </si>
+  <si>
+    <t>AgCl, HNO3</t>
+  </si>
+  <si>
+    <t>AgCl</t>
+  </si>
+  <si>
+    <t>HNO3</t>
+  </si>
+  <si>
+    <t>AgNO3, NaCl</t>
+  </si>
+  <si>
+    <t>AgCl, NaNO3</t>
+  </si>
+  <si>
+    <t>NaNO3</t>
+  </si>
+  <si>
+    <t>AgNO3, FeSO4</t>
+  </si>
+  <si>
+    <t>Ag, Fe2(SO4)3, Fe(NO3)2</t>
+  </si>
+  <si>
+    <t>Fe(NO3)2</t>
+  </si>
+  <si>
+    <t>AgNO3, Mg</t>
+  </si>
+  <si>
+    <t>Ag, Mg(NO3)2</t>
+  </si>
+  <si>
+    <t>Mg(NO3)2</t>
+  </si>
+  <si>
+    <t>Zn(NO3)2</t>
+  </si>
+  <si>
+    <t>AgNO3, Na</t>
+  </si>
+  <si>
+    <t>Ag, NaNO3</t>
+  </si>
+  <si>
+    <t>AgNO3, Al</t>
+  </si>
+  <si>
+    <t>Ag, Al(NO3)3</t>
+  </si>
+  <si>
+    <t>Al(NO)3</t>
+  </si>
+  <si>
+    <t>C, O2</t>
   </si>
 </sst>
 </file>
@@ -804,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,6 +1070,12 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
       <c r="C11">
         <v>108</v>
       </c>
@@ -963,6 +1125,12 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
       <c r="C16">
         <v>113</v>
       </c>
@@ -1287,6 +1455,102 @@
       </c>
       <c r="C48">
         <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1297,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,6 +2058,272 @@
       </c>
       <c r="E33">
         <v>103111134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34">
+        <v>100104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34">
+        <v>103126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35">
+        <v>100106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35">
+        <v>103146</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36">
+        <v>100122</v>
+      </c>
+      <c r="D36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36">
+        <v>103147</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37">
+        <v>100115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37">
+        <v>114147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38">
+        <v>100107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38">
+        <v>102103111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39">
+        <v>100119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39">
+        <v>131148</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40">
+        <v>100121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40">
+        <v>131149</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41">
+        <v>100123</v>
+      </c>
+      <c r="D41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41">
+        <v>126144</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42">
+        <v>100130</v>
+      </c>
+      <c r="D42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42">
+        <v>102131</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43">
+        <v>100132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43">
+        <v>131150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44">
+        <v>100133</v>
+      </c>
+      <c r="D44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44">
+        <v>103150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45">
+        <v>100136</v>
+      </c>
+      <c r="D45" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45">
+        <v>102103111</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46">
+        <v>100117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46">
+        <v>151152</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47">
+        <v>102117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47">
+        <v>151153</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48">
+        <v>114117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48">
+        <v>118143154</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49">
+        <v>117156</v>
+      </c>
+      <c r="D49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49">
+        <v>143155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50">
+        <v>117130</v>
+      </c>
+      <c r="D50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50">
+        <v>143153</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51">
+        <v>117132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51">
+        <v>118157</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52">
+        <v>108112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Chem.xlsx
+++ b/Chem.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="169">
   <si>
     <t>Compound</t>
   </si>
@@ -514,6 +514,15 @@
   </si>
   <si>
     <t>yellow</t>
+  </si>
+  <si>
+    <t>220,20,60</t>
+  </si>
+  <si>
+    <t>128,0,128</t>
+  </si>
+  <si>
+    <t>139,69,19</t>
   </si>
 </sst>
 </file>
@@ -529,12 +538,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -549,8 +564,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,9 +882,10 @@
     <col min="1" max="1" width="58.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -873,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -887,7 +907,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -901,7 +921,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -915,7 +935,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -929,7 +949,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -943,7 +963,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -957,7 +977,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -971,7 +991,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -985,7 +1005,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -999,7 +1019,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1033,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +1047,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1061,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1055,7 +1075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -1068,8 +1088,18 @@
       <c r="D16" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>255</v>
+      </c>
+      <c r="F16" s="2">
+        <v>165</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1083,7 +1113,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1096,8 +1126,17 @@
       <c r="D18" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>128</v>
+      </c>
+      <c r="F18" s="2">
+        <v>138</v>
+      </c>
+      <c r="G18" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1111,7 +1150,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1125,7 +1164,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1139,7 +1178,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1153,7 +1192,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1167,7 +1206,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1181,7 +1220,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1194,8 +1233,11 @@
       <c r="D25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1209,7 +1251,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1222,8 +1264,17 @@
       <c r="D27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>173</v>
+      </c>
+      <c r="F27" s="2">
+        <v>255</v>
+      </c>
+      <c r="G27" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1236,8 +1287,11 @@
       <c r="D28" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1251,7 +1305,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1265,7 +1319,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1279,7 +1333,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1293,7 +1347,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -1306,8 +1360,11 @@
       <c r="D33" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>192192192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1321,7 +1378,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -1335,7 +1392,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -1349,7 +1406,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -1363,7 +1420,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -1377,7 +1434,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>107</v>
       </c>
@@ -1388,7 +1445,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>111</v>
       </c>
@@ -1398,8 +1455,11 @@
       <c r="D40" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>116</v>
       </c>
@@ -1410,7 +1470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>118</v>
       </c>
@@ -1421,7 +1481,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>119</v>
       </c>
@@ -1432,7 +1492,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>122</v>
       </c>
@@ -1443,7 +1503,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>125</v>
       </c>
@@ -1454,7 +1514,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>128</v>
       </c>
@@ -1465,7 +1525,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>141</v>
       </c>
@@ -1476,7 +1536,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>146</v>
       </c>

--- a/Chem.xlsx
+++ b/Chem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="156" windowWidth="20112" windowHeight="7992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -966,14 +966,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -992,7 +992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>107</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>111</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>116</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>118</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>119</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>122</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>125</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>128</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>141</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>146</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>158</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>171</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>179</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>180</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>181</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>184</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>185</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>188</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>191</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>194</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>195</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>200</v>
       </c>
@@ -1563,17 +1563,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" activeCellId="1" sqref="C1:C1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2339,9 +2339,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
